--- a/biology/Zoologie/Flexopecten_glaber/Flexopecten_glaber.xlsx
+++ b/biology/Zoologie/Flexopecten_glaber/Flexopecten_glaber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pétoncle glabre
 Le Pétoncle glabre (Flexopecten glaber) est une espèce de mollusques bivalves de la famille des Pectinidae, sous-famille des Pectininae, tribu des Aequipectinini, et du genre Flexopecten. 
@@ -516,15 +528,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description anatomique
-La coquille du Flexopecten glaber, de contour orbiculaire, large et haute en moyenne de  5 à 8 cm, présente deux valves convexes, l’une droite ou inférieure, et l’autre gauche ou supérieure, à peu près équilatérales, la droite étant moins incurvée que l’autre  (coquille inéquivalve). Leur face externe montre des lignes concentriques et est ornementée par une  sculpture dite costulée que forment de gros plis arrondis, les côtes, rayonnant en éventail depuis l'extrémité dorsale, au nombre caractéristique de 9 dans la  majorité des cas, rarement moindre (6-7) ou plus élevé, jusqu’à 10[1]. Il existe parfois un net bombement subapical délimité par une strie de croissance  profonde. La face interne montre l’empreinte centrale du muscle adducteur et une ligne palléale arquée. Chaque valve présente deux oreillettes, expansions lamellaires encadrant sa partie apicale, l’une postérieure, petite et triangulaire, l’autre antérieure, nettement plus développée sur la valve droite, subquadrangulaire  et échancrée sur son bord inférieur. La coloration externe est ochracée à rougeâtre chez les spécimens de sites antiques du Biterrois et souvent grise à noire chez ceux exhumés de la vase au fond de l'étang de Vendres, alors qu’elle varierait, sur le vivant, du rouge au blanc uniforme plus ou moins bigarré de  brun à violacé. La face interne est de même couleur ou blanche, plus ou moins nacrée. Les deux valves du vivant s’articulent dorsalement  autour de la charnière, presque sans  dents et son  ligament antagoniste du muscle adducteur.
+          <t>Description anatomique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La coquille du Flexopecten glaber, de contour orbiculaire, large et haute en moyenne de  5 à 8 cm, présente deux valves convexes, l’une droite ou inférieure, et l’autre gauche ou supérieure, à peu près équilatérales, la droite étant moins incurvée que l’autre  (coquille inéquivalve). Leur face externe montre des lignes concentriques et est ornementée par une  sculpture dite costulée que forment de gros plis arrondis, les côtes, rayonnant en éventail depuis l'extrémité dorsale, au nombre caractéristique de 9 dans la  majorité des cas, rarement moindre (6-7) ou plus élevé, jusqu’à 10. Il existe parfois un net bombement subapical délimité par une strie de croissance  profonde. La face interne montre l’empreinte centrale du muscle adducteur et une ligne palléale arquée. Chaque valve présente deux oreillettes, expansions lamellaires encadrant sa partie apicale, l’une postérieure, petite et triangulaire, l’autre antérieure, nettement plus développée sur la valve droite, subquadrangulaire  et échancrée sur son bord inférieur. La coloration externe est ochracée à rougeâtre chez les spécimens de sites antiques du Biterrois et souvent grise à noire chez ceux exhumés de la vase au fond de l'étang de Vendres, alors qu’elle varierait, sur le vivant, du rouge au blanc uniforme plus ou moins bigarré de  brun à violacé. La face interne est de même couleur ou blanche, plus ou moins nacrée. Les deux valves du vivant s’articulent dorsalement  autour de la charnière, presque sans  dents et son  ligament antagoniste du muscle adducteur.
 Sa « chair », apparaissant sur le frais après ouverture de la coquille est bigarrée comme chez les autres Pectens de jaunâtre (manteau), brun (branchies), beige et orange(gonade), blanc-nacré (muscle adducteur). Le pied est rudimentaire et il n’y a pas de siphon.
 Flexopecten glaber distans
 Valve droite et gauche du même spécimen:
 			Valve droite
 			Valve gauche
-Biologie
-Comme la Coquille Saint Jacques et la Pageline en milieu marin, Flexopecten glaber  repose sur le fond par sa valve droite ou inférieure, y recherchant peut être un sol sablo-argileux riche en nutriments (Littoral de l' Occitanie, Méditerranée orientale, lagune de Bizerte en Tunisie, Mer noire).  Libre, il est susceptible de se déplacer en zigzag par ouverture et fermeture rapide des valves22. Il est à souligner que deux échancrures du bord  des valves les empêchent d'être jointives et laissent entrevoir le corps de l'animal, qu’il gise in situ ou après sa capture. Les Pectens ne peuvent donc conserver leur eau comme les trois autres Mollusques,  de sorte qu’ exondés, il semblerait qu'ils ne puissent survivre au-delà de quelques heures.
 </t>
         </is>
       </c>
@@ -550,12 +565,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Intérêt en archéologie</t>
+          <t>Présentation</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lors de recherches  ponctuelles sur la villa romaine de Vivios (Lespignan, Hérault, Occitanie), une quantité remarquable de coquilles de mollusques marins a été mise à jour dans ses dépotoirs : le Pecten glabre (Flexopecten glaber , qui prédomine largement, l’Huître plate  d’Europe (Ostrea edulis) et, plus rares, la Moule (Mytilus galloprovincialis) et les Coques Cerastoderma , appartenant tous à la classe des Bivalves, ainsi qu’un Gastéropode, le Cérithe commun, Cerithium vulgatum. Les conchyliorestes de ces espèces ont été retrouvés dans d’autres habitats antiques proches des étangs actuels de Vendres et de la Matte (Lespignan-Nissan), plus au nord à Béziers même et jusque dans l’arrière-pays, au piémont des collines de Pardailhan (Saint-Chinianais) et Faugères, toujours associés à du mobilier gallo-romain. Leurs pêche et transport par l'homme depuis le bras de mer dont dérivent ces lagunes devient donc évident et confère au Pecten glabre , omniprésent, un intérêt de premier plan en archéologie comme "marqueur" biologique d'usage essentiellement culinaire.
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme la Coquille Saint Jacques et la Pageline en milieu marin, Flexopecten glaber  repose sur le fond par sa valve droite ou inférieure, y recherchant peut être un sol sablo-argileux riche en nutriments (Littoral de l' Occitanie, Méditerranée orientale, lagune de Bizerte en Tunisie, Mer noire).  Libre, il est susceptible de se déplacer en zigzag par ouverture et fermeture rapide des valves22. Il est à souligner que deux échancrures du bord  des valves les empêchent d'être jointives et laissent entrevoir le corps de l'animal, qu’il gise in situ ou après sa capture. Les Pectens ne peuvent donc conserver leur eau comme les trois autres Mollusques,  de sorte qu’ exondés, il semblerait qu'ils ne puissent survivre au-delà de quelques heures.
 </t>
         </is>
       </c>
@@ -581,12 +602,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Historique et dénomination</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Flexopecten glaber  a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Ostrea glabra[2].
+          <t>Intérêt en archéologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de recherches  ponctuelles sur la villa romaine de Vivios (Lespignan, Hérault, Occitanie), une quantité remarquable de coquilles de mollusques marins a été mise à jour dans ses dépotoirs : le Pecten glabre (Flexopecten glaber , qui prédomine largement, l’Huître plate  d’Europe (Ostrea edulis) et, plus rares, la Moule (Mytilus galloprovincialis) et les Coques Cerastoderma , appartenant tous à la classe des Bivalves, ainsi qu’un Gastéropode, le Cérithe commun, Cerithium vulgatum. Les conchyliorestes de ces espèces ont été retrouvés dans d’autres habitats antiques proches des étangs actuels de Vendres et de la Matte (Lespignan-Nissan), plus au nord à Béziers même et jusque dans l’arrière-pays, au piémont des collines de Pardailhan (Saint-Chinianais) et Faugères, toujours associés à du mobilier gallo-romain. Leurs pêche et transport par l'homme depuis le bras de mer dont dérivent ces lagunes devient donc évident et confère au Pecten glabre , omniprésent, un intérêt de premier plan en archéologie comme "marqueur" biologique d'usage essentiellement culinaire.
 </t>
         </is>
       </c>
@@ -612,10 +635,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Flexopecten glaber  a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Ostrea glabra.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Flexopecten_glaber</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flexopecten_glaber</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ostrea glabra Linnaeus, 1758 (Protonyme)
 Chlamys glabra (Linnaeus, 1758)
@@ -630,31 +688,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Flexopecten_glaber</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Flexopecten_glaber</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Liste des sous-espèces
 Flexopecten glaber glaber (Linné, 1758)
